--- a/config_debug/jjsl_server.xlsx
+++ b/config_debug/jjsl_server.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_cjj\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -412,7 +412,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -470,7 +470,7 @@
         <v>1000</v>
       </c>
       <c r="G2" s="2">
-        <v>2000</v>
+        <v>1991</v>
       </c>
     </row>
   </sheetData>
